--- a/user-data/poor-people-190/poor-people-190.xlsx
+++ b/user-data/poor-people-190/poor-people-190.xlsx
@@ -883,7 +883,7 @@
     <t xml:space="preserve">Name: poor-people-190</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Number of poor people living on under $1.90 per day.</t>
+    <t xml:space="preserve">Description: Number of poor people living on under 2011 PPP$ 1.90 per day.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: unit</t>

--- a/user-data/poor-people-190/poor-people-190.xlsx
+++ b/user-data/poor-people-190/poor-people-190.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t xml:space="preserve">di_id</t>
   </si>
@@ -1123,10 +1123,13 @@
     <t xml:space="preserve">Description: Extreme poverty is defined as living on less than $1.90 a day. It is calculated using the national poverty lines of some of the world's poorest countries at 2011 PPP$.</t>
   </si>
   <si>
+    <t xml:space="preserve">Description: Extreme poverty is defined as living on less than $1.90 a day. It is calculated using the national poverty lines of some of the world's poorest countries at 2011 PPP$. 2013 represents the most recent year data is available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(NA, NA, 61)</t>
+    <t xml:space="preserve">Source: c(NA, NA, 62)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -1499,82 +1502,82 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/poor-people-190/poor-people-190.xlsx
+++ b/user-data/poor-people-190/poor-people-190.xlsx
@@ -1129,7 +1129,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(NA, NA, 62)</t>
+    <t xml:space="preserve">Source: c(NA, NA, 63)</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/poor-people-190/poor-people-190.xlsx
+++ b/user-data/poor-people-190/poor-people-190.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t xml:space="preserve">di_id</t>
   </si>
@@ -1123,10 +1123,13 @@
     <t xml:space="preserve">Description: Extreme poverty is defined as living on less than $1.90 a day. It is calculated using the national poverty lines of some of the world's poorest countries at 2011 PPP$.</t>
   </si>
   <si>
+    <t xml:space="preserve">Description: Extreme poverty is defined as living on less than $1.90 a day. It is calculated using the national poverty lines of some of the world's poorest countries at 2011 PPP$. 2013 represents the most recent year data is available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: c(NA, NA, 61)</t>
+    <t xml:space="preserve">Source: c(NA, NA, 63)</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -1499,82 +1502,82 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
